--- a/data/trans_bre/P16A18-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A18-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A18-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A18-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/trans_bre/P16A18-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A18-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
